--- a/notebooks/experiments/exp_4_single/Familial/Familial_error_analysis_3.xlsx
+++ b/notebooks/experiments/exp_4_single/Familial/Familial_error_analysis_3.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbaldonado/Developer/ml-alma-taccti/ml-alma-taccti/notebooks/experiments/exp_4_single/Familial/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0CB4B0-B4DA-A84F-A0CF-3D21C0246C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22320" yWindow="18000" windowWidth="32080" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$212</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -661,8 +670,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,13 +734,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -769,7 +786,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -803,6 +820,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -837,9 +855,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1012,14 +1031,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D169"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="49" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1044,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1058,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1072,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1086,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1100,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1114,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1128,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1142,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1156,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1184,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1198,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1212,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1226,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1240,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1254,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1268,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1282,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1296,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1310,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1324,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1338,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1352,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1366,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1380,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1394,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1408,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1422,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1436,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1450,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1464,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1478,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1492,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1506,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1520,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1534,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1548,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1562,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1576,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1590,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1604,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1618,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1632,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1646,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1660,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1674,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1688,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1702,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1716,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1730,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1744,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1758,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1772,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1786,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1800,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1814,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1828,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1842,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1856,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1870,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1884,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1898,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1912,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1926,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1940,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1954,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1968,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1982,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1996,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2010,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2024,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2038,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2052,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2066,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2080,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2094,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2108,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2122,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2136,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2150,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2164,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2178,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2192,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2206,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2220,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2234,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2248,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2262,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2276,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2290,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2304,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2318,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2332,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2346,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2360,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2374,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2388,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2402,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2416,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2430,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2444,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2458,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2472,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2486,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2500,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2514,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2528,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2542,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2556,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2570,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2584,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2598,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2612,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2626,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2640,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2654,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2668,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2682,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2696,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2710,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2724,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2738,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2752,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2766,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2780,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2794,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2808,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2822,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2836,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2850,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2864,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2878,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2892,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2906,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2920,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2934,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2948,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2962,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2976,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2990,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3004,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3018,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3032,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3046,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3060,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3074,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3088,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3102,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3116,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3130,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3144,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3158,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3172,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3186,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3200,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3214,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3228,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3242,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3256,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3270,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3284,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3298,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3312,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3326,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3340,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3354,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3368,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3382,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3396,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3410,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3424,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3438,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3452,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3466,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3480,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3494,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3508,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3522,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3536,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3550,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3564,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3578,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3592,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3606,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3620,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3634,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3648,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3662,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3676,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3690,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3704,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3718,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3732,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3746,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3760,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3774,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3788,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3802,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3816,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3830,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3844,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3858,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3872,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3886,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3900,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3914,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3928,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3942,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3956,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -3970,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -3985,6 +4007,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D212" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>